--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -22,14 +22,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -398,9 +398,7 @@
     <x:col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" s="2" customFormat="1">
-      <x:c r="A1" s="2" t="s"/>
-    </x:row>
+    <x:row r="1" spans="1:3" s="2" customFormat="1"/>
     <x:row r="2" spans="1:3" s="2" customFormat="1">
       <x:c r="B2" s="1" t="s"/>
       <x:c r="C2" s="1" t="s"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -101,7 +101,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -384,7 +384,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -41,13 +41,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFA500"/>
-        <x:bgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00A550"/>
-        <x:bgColor rgb="FF00A550"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -40,12 +40,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFA500"/>
+        <x:fgColor rgb="FF00A550"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF00A550"/>
+        <x:fgColor rgb="FFFFA500"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -393,19 +393,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" s="2" customFormat="1">
-      <x:c r="A1" s="2" t="s"/>
+    <x:row r="1" spans="1:3" s="1" customFormat="1">
+      <x:c r="A1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:3" s="2" customFormat="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="C2" s="1" t="s"/>
+    <x:row r="2" spans="1:3" s="1" customFormat="1">
+      <x:c r="B2" s="2" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s"/>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -396,9 +396,7 @@
     <x:col min="1" max="2" width="9.140625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" s="2" customFormat="1">
-      <x:c r="A1" s="2" t="s"/>
-    </x:row>
+    <x:row r="1" spans="1:3" s="2" customFormat="1"/>
     <x:row r="2" spans="1:3" s="2" customFormat="1">
       <x:c r="B2" s="1" t="s"/>
       <x:c r="C2" s="1" t="s"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -387,7 +387,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H8"/>
+  <x:dimension ref="A1:C3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/DeletingRanges.xlsx
@@ -396,8 +396,12 @@
     <x:col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" s="1" customFormat="1"/>
+    <x:row r="1" spans="1:3" s="1" customFormat="1">
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
+    </x:row>
     <x:row r="2" spans="1:3" s="1" customFormat="1">
+      <x:c r="A2" s="1" t="s"/>
       <x:c r="B2" s="2" t="s"/>
       <x:c r="C2" s="2" t="s"/>
     </x:row>
